--- a/data/exemplo_redes_filiais.xlsx
+++ b/data/exemplo_redes_filiais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,141 +436,132 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>codigo_rede</t>
+          <t>Nome da Rede</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nome_rede</t>
+          <t>Nome da Filial</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>status_rede</t>
+          <t>Ativa</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>codigo_filial</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>nome_filial</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>status_filial</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cidade</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>regiao</t>
+          <t>Data de Início</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RED001</t>
+          <t>Rede Sul</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rede Exemplo</t>
+          <t>Filial Porto Alegre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ATIVA</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FIL001</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Filial Centro</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Sudeste</t>
+          <t>2024-05-28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RED002</t>
+          <t>Rede Sul</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rede Teste</t>
+          <t>Filial Florianópolis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ATIVA</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FIL002</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Filial Norte</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Sudeste</t>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rede Norte</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Filial Manaus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rede Norte</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Filial Belém</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rede Centro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Filial Brasília</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
